--- a/MDM Cloud Control Mapping_v3.xlsx
+++ b/MDM Cloud Control Mapping_v3.xlsx
@@ -2040,8 +2040,9 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{C7A12381-64EE-4A33-8460-ECF734B265E6}" name="Jade Stewart (GOV)" id="-1087941974" dateTime="2023-09-06T17:47:07"/>
+  <userInfo guid="{C7A12381-64EE-4A33-8460-ECF734B265E6}" name="Fisher, Justin M. [US-US]" id="-550114726" dateTime="2023-09-08T12:05:09"/>
 </users>
 </file>
 
